--- a/weburl.xlsx
+++ b/weburl.xlsx
@@ -1428,8 +1428,10 @@
           <t>http://guilin.gxmzt.gov.cn/</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>403</v>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="14" s="16">

--- a/weburl.xlsx
+++ b/weburl.xlsx
@@ -1248,8 +1248,10 @@
           <t>http://www.glrd.gov.cn/</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>200</v>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="4" s="16">
@@ -1266,8 +1268,10 @@
           <t>http://www.glszx.gov.cn/</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>200</v>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="5" s="16">
@@ -1285,7 +1289,7 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="6" s="16">
@@ -1302,8 +1306,10 @@
           <t>http://daj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>200</v>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="7" s="16">
@@ -1320,8 +1326,10 @@
           <t>http://fgw.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>200</v>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="8" s="16">
@@ -1374,8 +1382,10 @@
           <t>http://gxj.guilin.gov.cn</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>200</v>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="11" s="16">
@@ -1410,8 +1420,10 @@
           <t>http://gaj.guilin.gov.cn</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>200</v>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="13" s="16">
@@ -1428,10 +1440,8 @@
           <t>http://guilin.gxmzt.gov.cn/</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
+      <c r="D13" s="3" t="n">
+        <v>200</v>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="14" s="16">
@@ -1448,8 +1458,10 @@
           <t>http://sfj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>200</v>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="15" s="16">
@@ -1466,8 +1478,10 @@
           <t>http://czj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>200</v>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="16" s="16">
@@ -1502,8 +1516,10 @@
           <t>http://zrzyj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>200</v>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="18" s="16">
@@ -1520,8 +1536,10 @@
           <t>http://sthjj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
-        <v>200</v>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="19" s="16">
@@ -1574,8 +1592,10 @@
           <t>http://slj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>200</v>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="22" s="16">
@@ -1592,8 +1612,10 @@
           <t>http://nyncj.guilin.gov.cn/zwb/</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>200</v>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="23" s="16">
@@ -1648,8 +1670,10 @@
           <t>http://wglj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
-        <v>200</v>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="26" s="16">
@@ -1684,8 +1708,10 @@
           <t>http://yjglj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
-        <v>200</v>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="28" s="16">
@@ -1702,8 +1728,10 @@
           <t>http://sjj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
-        <v>200</v>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="29" s="16">
@@ -1720,8 +1748,10 @@
           <t>http://wsqwb.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
-        <v>200</v>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="30" s="16">
@@ -1756,8 +1786,10 @@
           <t>http://tyj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n">
-        <v>200</v>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="32" s="16">
@@ -1774,8 +1806,10 @@
           <t>http://tjj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n">
-        <v>200</v>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="33" s="16">
@@ -1792,8 +1826,10 @@
           <t>http://rfb.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n">
-        <v>200</v>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="34" s="16">
@@ -1864,8 +1900,10 @@
           <t>http://jgswj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
-        <v>200</v>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="38" s="16">
@@ -1882,8 +1920,10 @@
           <t>http://gzw.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
-        <v>200</v>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="39" s="16">
@@ -1900,8 +1940,10 @@
           <t>http://tzcjj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
-        <v>200</v>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="40" s="16">
@@ -1918,8 +1960,10 @@
           <t>http://zfgjj.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
-        <v>200</v>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="41" s="16">
@@ -1954,8 +1998,10 @@
           <t>http://cqb.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n">
-        <v>200</v>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="43" s="16">
@@ -1972,8 +2018,10 @@
           <t>http://gl.gxnj.gov.cn</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>200</v>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="44" s="16">
@@ -2026,8 +2074,10 @@
           <t>http://lgw.guilin.gov.cn/</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>200</v>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="47" s="16">
@@ -2134,8 +2184,10 @@
           <t>http://www.yangshuo.gov.cn/</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n">
-        <v>200</v>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="53" s="16">
@@ -2188,8 +2240,10 @@
           <t>http://www.ziyuan.gov.cn/</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n">
-        <v>200</v>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="54.75" r="56" s="16">
@@ -2206,8 +2260,10 @@
           <t>http://www.pingle.gov.cn/</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n">
-        <v>200</v>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="57" s="16">
@@ -2278,8 +2334,10 @@
           <t>http://www.glxsqzf.gov.cn</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n">
-        <v>200</v>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="41.25" r="61" s="16">
@@ -2332,8 +2390,10 @@
           <t>http://www.glyszf.gov.cn/</t>
         </is>
       </c>
-      <c r="D63" s="3" t="n">
-        <v>200</v>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="68.25" r="64" s="16">
@@ -2350,8 +2410,10 @@
           <t>http://www.glgxq.gov.cn/</t>
         </is>
       </c>
-      <c r="D64" s="3" t="n">
-        <v>200</v>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="68.25" r="65" s="16">
